--- a/assigment 2/Olatunde_Orru/Book1.xlsx
+++ b/assigment 2/Olatunde_Orru/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Repositories\Parallel-Programming-\assigment 2\Olatunde_Orru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EC7D4E-7AF1-47A8-8CAB-8D044A0600F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B932149B-26C2-47C3-964D-D1E72DD3B0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EABE05B0-E385-4FA7-8A20-996EC50A6AF7}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
   <si>
     <t>Problem Size (N)</t>
   </si>
@@ -109,15 +109,15 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -134,6 +134,6657 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1024</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'rough work '!$B$5:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'rough work '!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>145966.67000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5697.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11109.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6781-4E61-8FE6-28834542A781}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>16384</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'rough work '!$B$5:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'rough work '!$D$5:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>35904551.329999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121567.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62606.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6781-4E61-8FE6-28834542A781}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1604373823"/>
+        <c:axId val="1535698783"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1604373823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#Processors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1535698783"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1535698783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1604373823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speedup</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1024</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'rough work '!$B$16:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'rough work '!$C$16:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.62072839161625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.139461321105443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-43F6-4228-A709-587BFAA7B00E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>16384</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'rough work '!$B$16:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'rough work '!$D$16:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>295.34551151471157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>573.49173749483282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-43F6-4228-A709-587BFAA7B00E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1686413439"/>
+        <c:axId val="1695600015"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1686413439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#Processors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1695600015"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1695600015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1686413439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Efficiency</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1024</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'rough work '!$B$25:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'rough work '!$C$25:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6012955244760156</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41060816628454511</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3281-474E-9F81-CEB69EDD6B97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>16384</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'rough work '!$B$25:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'rough work '!$D$25:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.459094469669473</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.921616796713526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3281-474E-9F81-CEB69EDD6B97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1774614751"/>
+        <c:axId val="1774608511"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1774614751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#Processors</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1774608511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1774608511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1774614751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1024</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'rough work '!$B$5:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'rough work '!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>145966.67000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5697.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11109.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA51-46F3-AFB3-8718D9A83659}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>16384</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'rough work '!$B$5:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'rough work '!$D$5:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>35904551.329999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121567.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62606.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DA51-46F3-AFB3-8718D9A83659}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1604373823"/>
+        <c:axId val="1535698783"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1604373823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#Processors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1535698783"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1535698783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1604373823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speedup</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1024</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'rough work '!$B$16:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'rough work '!$C$16:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.62072839161625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.139461321105443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-93FF-4031-BBB8-995AAD2D7524}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>16384</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'rough work '!$B$16:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'rough work '!$D$16:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>295.34551151471157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>573.49173749483282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-93FF-4031-BBB8-995AAD2D7524}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1686413439"/>
+        <c:axId val="1695600015"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1686413439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#Processors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1695600015"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1695600015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1686413439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Efficiency</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1024</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'rough work '!$B$25:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'rough work '!$C$25:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6012955244760156</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41060816628454511</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B566-4F77-AABF-EE7086DD7E86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>16384</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'rough work '!$B$25:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'rough work '!$D$25:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.459094469669473</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.921616796713526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B566-4F77-AABF-EE7086DD7E86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1774614751"/>
+        <c:axId val="1774608511"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1774614751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#Processors</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1774608511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1774608511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1774614751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B04C79E7-5806-46A4-6CE8-7A62FB375934}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD54B80-7955-BCA6-3DB7-722F1469F9A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FEA73CF-145F-28B1-95E9-C99215A9BCCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C6DC035-53EF-4A24-8AEB-0C56E1FCD9CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E1E644-4AF8-408C-AF65-052971841A9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80E0B674-FE71-42F8-A934-9588169E0BA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,8 +7086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89ECD08-819B-4523-9B26-B6516F43D4AD}">
   <dimension ref="A2:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,7 +7098,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
@@ -455,16 +7106,16 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="1"/>
+      <c r="B4" s="4"/>
       <c r="C4">
         <v>1024</v>
       </c>
@@ -476,7 +7127,10 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="C5">
+        <v>145966.67000000001</v>
+      </c>
+      <c r="D5" s="2">
         <v>35904551.329999998</v>
       </c>
     </row>
@@ -487,11 +7141,20 @@
       <c r="C6">
         <v>5697.21</v>
       </c>
+      <c r="D6">
+        <v>121567.96</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>32</v>
       </c>
+      <c r="C7">
+        <v>11109.03</v>
+      </c>
+      <c r="D7">
+        <v>62606.92</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
@@ -501,16 +7164,16 @@
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
+      <c r="B15" s="4"/>
       <c r="C15">
         <v>1024</v>
       </c>
@@ -522,9 +7185,9 @@
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" t="e">
+      <c r="C16">
         <f>C$5/C5</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <f>D$5/D5</f>
@@ -537,24 +7200,24 @@
       </c>
       <c r="C17">
         <f>C$5/C6</f>
-        <v>0</v>
-      </c>
-      <c r="D17" t="e">
+        <v>25.62072839161625</v>
+      </c>
+      <c r="D17">
         <f>D$5/D6</f>
-        <v>#DIV/0!</v>
+        <v>295.34551151471157</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>32</v>
       </c>
-      <c r="C18" t="e">
+      <c r="C18">
         <f>C$5/C7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" t="e">
-        <f t="shared" ref="D17:D18" si="0">D$5/D7</f>
-        <v>#DIV/0!</v>
+        <v>13.139461321105443</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18" si="0">D$5/D7</f>
+        <v>573.49173749483282</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
@@ -565,16 +7228,16 @@
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
+      <c r="B24" s="4"/>
       <c r="C24">
         <v>1024</v>
       </c>
@@ -586,9 +7249,9 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" t="e">
+      <c r="C25">
         <f>C16/B16</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <f>D16/B16</f>
@@ -601,29 +7264,28 @@
       </c>
       <c r="C26">
         <f t="shared" ref="C26:C27" si="1">C17/B17</f>
-        <v>0</v>
-      </c>
-      <c r="D26" t="e">
+        <v>1.6012955244760156</v>
+      </c>
+      <c r="D26">
         <f>D17/B17</f>
-        <v>#DIV/0!</v>
+        <v>18.459094469669473</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>32</v>
       </c>
-      <c r="C27" t="e">
+      <c r="C27">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D27" t="e">
+        <v>0.41060816628454511</v>
+      </c>
+      <c r="D27">
         <f>D18/B18</f>
-        <v>#DIV/0!</v>
+        <v>17.921616796713526</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C3:D3"/>
@@ -632,43 +7294,266 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFE6D5E-DAF4-424D-A082-C93E6FA45EC7}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="4"/>
+      <c r="C5">
+        <v>1024</v>
+      </c>
+      <c r="D5">
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>145966.67000000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>35904551.329999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>5697.21</v>
+      </c>
+      <c r="D7">
+        <v>121567.96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>11109.03</v>
+      </c>
+      <c r="D8">
+        <v>62606.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268C3C31-F881-42C0-BD5B-64913C10B73B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="45.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3">
+        <v>1024</v>
+      </c>
+      <c r="C3">
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f ca="1">B$5/#REF!</f>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f ca="1">C$5/#REF!</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <f ca="1">B$5/#REF!</f>
+        <v>25.62072839161625</v>
+      </c>
+      <c r="C5">
+        <f ca="1">C$5/#REF!</f>
+        <v>295.34551151471157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <f ca="1">B$5/#REF!</f>
+        <v>13.139461321105443</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6" ca="1" si="0">C$5/#REF!</f>
+        <v>573.49173749483282</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5A38FD-7201-45DB-B6BC-B50DB71642F7}">
-  <dimension ref="A1"/>
+  <dimension ref="A4:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1024</v>
+      </c>
+      <c r="C6">
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>1.6012955244760156</v>
+      </c>
+      <c r="C8">
+        <v>18.459094469669473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>0.41060816628454511</v>
+      </c>
+      <c r="C9">
+        <v>17.921616796713526</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>